--- a/artfynd/A 63441-2025 artfynd.xlsx
+++ b/artfynd/A 63441-2025 artfynd.xlsx
@@ -1451,7 +1451,7 @@
         <v>130930217</v>
       </c>
       <c r="B8" t="n">
-        <v>79495</v>
+        <v>79499</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         <v>130930226</v>
       </c>
       <c r="B9" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>130930221</v>
       </c>
       <c r="B10" t="n">
-        <v>79710</v>
+        <v>79714</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>130930232</v>
       </c>
       <c r="B11" t="n">
-        <v>83217</v>
+        <v>83221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>130930225</v>
       </c>
       <c r="B12" t="n">
-        <v>79710</v>
+        <v>79714</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>130930227</v>
       </c>
       <c r="B13" t="n">
-        <v>83219</v>
+        <v>83223</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2145,10 +2145,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130930230</v>
+        <v>130930220</v>
       </c>
       <c r="B14" t="n">
-        <v>78251</v>
+        <v>79714</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2156,21 +2156,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>228579</v>
+        <v>1797</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Mjölig dropplav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Cliostomum leprosum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Räsänen) Holien &amp; Tønsberg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>448404</v>
+        <v>448353</v>
       </c>
       <c r="R14" t="n">
-        <v>7037411</v>
+        <v>7037267</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2262,32 +2262,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130930220</v>
+        <v>130930219</v>
       </c>
       <c r="B15" t="n">
-        <v>79710</v>
+        <v>92530</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1797</v>
+        <v>3298</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mjölig dropplav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cliostomum leprosum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Räsänen) Holien &amp; Tønsberg</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>448353</v>
+        <v>448355</v>
       </c>
       <c r="R15" t="n">
-        <v>7037267</v>
+        <v>7037273</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2379,32 +2379,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130930219</v>
+        <v>130930230</v>
       </c>
       <c r="B16" t="n">
-        <v>92526</v>
+        <v>78255</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3298</v>
+        <v>228579</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>448355</v>
+        <v>448404</v>
       </c>
       <c r="R16" t="n">
-        <v>7037273</v>
+        <v>7037411</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2499,7 +2499,7 @@
         <v>130930216</v>
       </c>
       <c r="B17" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>130930218</v>
       </c>
       <c r="B18" t="n">
-        <v>79710</v>
+        <v>79714</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>130930231</v>
       </c>
       <c r="B19" t="n">
-        <v>83219</v>
+        <v>83223</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>130930223</v>
       </c>
       <c r="B20" t="n">
-        <v>79710</v>
+        <v>79714</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         <v>130930222</v>
       </c>
       <c r="B21" t="n">
-        <v>83217</v>
+        <v>83221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>130930228</v>
       </c>
       <c r="B22" t="n">
-        <v>83217</v>
+        <v>83221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>

--- a/artfynd/A 63441-2025 artfynd.xlsx
+++ b/artfynd/A 63441-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:AY29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3195,6 +3195,728 @@
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>131064798</v>
+      </c>
+      <c r="B23" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Lars-Olssved, Jmt</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>448209</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7037284</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Offerdal</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>131064797</v>
+      </c>
+      <c r="B24" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Lars-Olssved, Jmt</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>448211</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7037286</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Offerdal</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>131064799</v>
+      </c>
+      <c r="B25" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Lars-Olssved, Jmt</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>448242</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7037242</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Offerdal</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>131064804</v>
+      </c>
+      <c r="B26" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Lars-Olssved, Jmt</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>448308</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7037158</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Offerdal</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>131064796</v>
+      </c>
+      <c r="B27" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Lars-Olssved, Jmt</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>448214</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7037299</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Offerdal</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Troligt gammalt bohål ca 2,3m upp i granhögstubbe</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>131064802</v>
+      </c>
+      <c r="B28" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Lars-Olssved, Jmt</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>448230</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7037239</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Offerdal</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>131064800</v>
+      </c>
+      <c r="B29" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Lars-Olssved, Jmt</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>448227</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7037255</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Krokom</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Offerdal</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 63441-2025 artfynd.xlsx
+++ b/artfynd/A 63441-2025 artfynd.xlsx
@@ -2145,10 +2145,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130930220</v>
+        <v>130930230</v>
       </c>
       <c r="B14" t="n">
-        <v>79714</v>
+        <v>78255</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2156,21 +2156,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1797</v>
+        <v>228579</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mjölig dropplav</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cliostomum leprosum</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Räsänen) Holien &amp; Tønsberg</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>448353</v>
+        <v>448404</v>
       </c>
       <c r="R14" t="n">
-        <v>7037267</v>
+        <v>7037411</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2262,32 +2262,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130930219</v>
+        <v>130930220</v>
       </c>
       <c r="B15" t="n">
-        <v>92530</v>
+        <v>79714</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3298</v>
+        <v>1797</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Mjölig dropplav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Cliostomum leprosum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Räsänen) Holien &amp; Tønsberg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>448355</v>
+        <v>448353</v>
       </c>
       <c r="R15" t="n">
-        <v>7037273</v>
+        <v>7037267</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2379,32 +2379,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130930230</v>
+        <v>130930219</v>
       </c>
       <c r="B16" t="n">
-        <v>78255</v>
+        <v>92530</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>228579</v>
+        <v>3298</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>448404</v>
+        <v>448355</v>
       </c>
       <c r="R16" t="n">
-        <v>7037411</v>
+        <v>7037273</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2846,32 +2846,32 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130930223</v>
+        <v>130930222</v>
       </c>
       <c r="B20" t="n">
-        <v>79714</v>
+        <v>83221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1797</v>
+        <v>6486</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Mjölig dropplav</t>
+          <t>Skuggnål</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cliostomum leprosum</t>
+          <t>Chaenotheca sphaerocephala</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Räsänen) Holien &amp; Tønsberg</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2881,10 +2881,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>448337</v>
+        <v>448330</v>
       </c>
       <c r="R20" t="n">
-        <v>7037328</v>
+        <v>7037323</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2963,32 +2963,32 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130930222</v>
+        <v>130930223</v>
       </c>
       <c r="B21" t="n">
-        <v>83221</v>
+        <v>79714</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6486</v>
+        <v>1797</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skuggnål</t>
+          <t>Mjölig dropplav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Chaenotheca sphaerocephala</t>
+          <t>Cliostomum leprosum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Räsänen) Holien &amp; Tønsberg</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2998,10 +2998,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>448330</v>
+        <v>448337</v>
       </c>
       <c r="R21" t="n">
-        <v>7037323</v>
+        <v>7037328</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131064799</v>
+        <v>131064804</v>
       </c>
       <c r="B25" t="n">
         <v>57884</v>
@@ -3436,10 +3436,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>448242</v>
+        <v>448308</v>
       </c>
       <c r="R25" t="n">
-        <v>7037242</v>
+        <v>7037158</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3503,7 +3503,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131064804</v>
+        <v>131064799</v>
       </c>
       <c r="B26" t="n">
         <v>57884</v>
@@ -3538,10 +3538,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>448308</v>
+        <v>448242</v>
       </c>
       <c r="R26" t="n">
-        <v>7037158</v>
+        <v>7037242</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD26" t="b">

--- a/artfynd/A 63441-2025 artfynd.xlsx
+++ b/artfynd/A 63441-2025 artfynd.xlsx
@@ -1448,48 +1448,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130930217</v>
+        <v>130930226</v>
       </c>
       <c r="B8" t="n">
-        <v>79499</v>
+        <v>91828</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6459</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Barkkornlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lopadium disciforme</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>(Flot.) Kullh.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Hällberget, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>448392</v>
+        <v>448362</v>
       </c>
       <c r="R8" t="n">
-        <v>7037298</v>
+        <v>7037345</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1530,23 +1523,27 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1564,41 +1561,48 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130930226</v>
+        <v>130930217</v>
       </c>
       <c r="B9" t="n">
-        <v>91828</v>
+        <v>79499</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>6459</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Barkkornlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>Lopadium disciforme</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Flot.) Kullh.</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Hällberget, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>448362</v>
+        <v>448392</v>
       </c>
       <c r="R9" t="n">
-        <v>7037345</v>
+        <v>7037298</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1639,27 +1643,23 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -2262,32 +2262,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130930220</v>
+        <v>130930219</v>
       </c>
       <c r="B15" t="n">
-        <v>79714</v>
+        <v>92530</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1797</v>
+        <v>3298</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mjölig dropplav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cliostomum leprosum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Räsänen) Holien &amp; Tønsberg</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>448353</v>
+        <v>448355</v>
       </c>
       <c r="R15" t="n">
-        <v>7037267</v>
+        <v>7037273</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2379,32 +2379,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130930219</v>
+        <v>130930220</v>
       </c>
       <c r="B16" t="n">
-        <v>92530</v>
+        <v>79714</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3298</v>
+        <v>1797</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Mjölig dropplav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Cliostomum leprosum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Räsänen) Holien &amp; Tønsberg</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>448355</v>
+        <v>448353</v>
       </c>
       <c r="R16" t="n">
-        <v>7037273</v>
+        <v>7037267</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2729,32 +2729,32 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130930231</v>
+        <v>130930222</v>
       </c>
       <c r="B19" t="n">
-        <v>83223</v>
+        <v>83221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6440</v>
+        <v>6486</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skuggnål</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenotheca sphaerocephala</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2764,10 +2764,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>448412</v>
+        <v>448330</v>
       </c>
       <c r="R19" t="n">
-        <v>7037419</v>
+        <v>7037323</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2846,32 +2846,32 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130930222</v>
+        <v>130930231</v>
       </c>
       <c r="B20" t="n">
-        <v>83221</v>
+        <v>83223</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6486</v>
+        <v>6440</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skuggnål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chaenotheca sphaerocephala</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2881,10 +2881,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>448330</v>
+        <v>448412</v>
       </c>
       <c r="R20" t="n">
-        <v>7037323</v>
+        <v>7037419</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>

--- a/artfynd/A 63441-2025 artfynd.xlsx
+++ b/artfynd/A 63441-2025 artfynd.xlsx
@@ -1448,41 +1448,48 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130930226</v>
+        <v>130930217</v>
       </c>
       <c r="B8" t="n">
-        <v>91828</v>
+        <v>79499</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>6459</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Barkkornlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>Lopadium disciforme</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Flot.) Kullh.</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Hällberget, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>448362</v>
+        <v>448392</v>
       </c>
       <c r="R8" t="n">
-        <v>7037345</v>
+        <v>7037298</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1523,27 +1530,23 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1561,48 +1564,41 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130930217</v>
+        <v>130930226</v>
       </c>
       <c r="B9" t="n">
-        <v>79499</v>
+        <v>91828</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6459</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Barkkornlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lopadium disciforme</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>(Flot.) Kullh.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Hällberget, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>448392</v>
+        <v>448362</v>
       </c>
       <c r="R9" t="n">
-        <v>7037298</v>
+        <v>7037345</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1643,23 +1639,27 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -2262,32 +2262,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130930219</v>
+        <v>130930220</v>
       </c>
       <c r="B15" t="n">
-        <v>92530</v>
+        <v>79714</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3298</v>
+        <v>1797</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Mjölig dropplav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Cliostomum leprosum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Räsänen) Holien &amp; Tønsberg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>448355</v>
+        <v>448353</v>
       </c>
       <c r="R15" t="n">
-        <v>7037273</v>
+        <v>7037267</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2379,32 +2379,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130930220</v>
+        <v>130930219</v>
       </c>
       <c r="B16" t="n">
-        <v>79714</v>
+        <v>92530</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1797</v>
+        <v>3298</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mjölig dropplav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cliostomum leprosum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Räsänen) Holien &amp; Tønsberg</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>448353</v>
+        <v>448355</v>
       </c>
       <c r="R16" t="n">
-        <v>7037267</v>
+        <v>7037273</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2729,32 +2729,32 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130930222</v>
+        <v>130930231</v>
       </c>
       <c r="B19" t="n">
-        <v>83221</v>
+        <v>83223</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6486</v>
+        <v>6440</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skuggnål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenotheca sphaerocephala</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2764,10 +2764,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>448330</v>
+        <v>448412</v>
       </c>
       <c r="R19" t="n">
-        <v>7037323</v>
+        <v>7037419</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130930231</v>
+        <v>130930223</v>
       </c>
       <c r="B20" t="n">
-        <v>83223</v>
+        <v>79714</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2857,21 +2857,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6440</v>
+        <v>1797</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Mjölig dropplav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Cliostomum leprosum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Räsänen) Holien &amp; Tønsberg</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2881,10 +2881,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>448412</v>
+        <v>448337</v>
       </c>
       <c r="R20" t="n">
-        <v>7037419</v>
+        <v>7037328</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2963,32 +2963,32 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130930223</v>
+        <v>130930222</v>
       </c>
       <c r="B21" t="n">
-        <v>79714</v>
+        <v>83221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1797</v>
+        <v>6486</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mjölig dropplav</t>
+          <t>Skuggnål</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cliostomum leprosum</t>
+          <t>Chaenotheca sphaerocephala</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Räsänen) Holien &amp; Tønsberg</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2998,10 +2998,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>448337</v>
+        <v>448330</v>
       </c>
       <c r="R21" t="n">
-        <v>7037328</v>
+        <v>7037323</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>

--- a/artfynd/A 63441-2025 artfynd.xlsx
+++ b/artfynd/A 63441-2025 artfynd.xlsx
@@ -2145,10 +2145,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130930230</v>
+        <v>130930220</v>
       </c>
       <c r="B14" t="n">
-        <v>78255</v>
+        <v>79714</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2156,21 +2156,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>228579</v>
+        <v>1797</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Mjölig dropplav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Cliostomum leprosum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Räsänen) Holien &amp; Tønsberg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>448404</v>
+        <v>448353</v>
       </c>
       <c r="R14" t="n">
-        <v>7037411</v>
+        <v>7037267</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2262,32 +2262,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130930220</v>
+        <v>130930219</v>
       </c>
       <c r="B15" t="n">
-        <v>79714</v>
+        <v>92530</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1797</v>
+        <v>3298</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mjölig dropplav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cliostomum leprosum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Räsänen) Holien &amp; Tønsberg</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>448353</v>
+        <v>448355</v>
       </c>
       <c r="R15" t="n">
-        <v>7037267</v>
+        <v>7037273</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2379,32 +2379,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130930219</v>
+        <v>130930230</v>
       </c>
       <c r="B16" t="n">
-        <v>92530</v>
+        <v>78255</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3298</v>
+        <v>228579</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>448355</v>
+        <v>448404</v>
       </c>
       <c r="R16" t="n">
-        <v>7037273</v>
+        <v>7037411</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>

--- a/artfynd/A 63441-2025 artfynd.xlsx
+++ b/artfynd/A 63441-2025 artfynd.xlsx
@@ -1448,48 +1448,41 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130930217</v>
+        <v>130930226</v>
       </c>
       <c r="B8" t="n">
-        <v>79499</v>
+        <v>91828</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6459</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Barkkornlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lopadium disciforme</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>(Flot.) Kullh.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Hällberget, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>448392</v>
+        <v>448362</v>
       </c>
       <c r="R8" t="n">
-        <v>7037298</v>
+        <v>7037345</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1530,23 +1523,27 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1564,41 +1561,48 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130930226</v>
+        <v>130930217</v>
       </c>
       <c r="B9" t="n">
-        <v>91828</v>
+        <v>79499</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>6459</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Barkkornlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>Lopadium disciforme</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Flot.) Kullh.</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Hällberget, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>448362</v>
+        <v>448392</v>
       </c>
       <c r="R9" t="n">
-        <v>7037345</v>
+        <v>7037298</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1639,27 +1643,23 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -2262,32 +2262,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130930219</v>
+        <v>130930230</v>
       </c>
       <c r="B15" t="n">
-        <v>92530</v>
+        <v>78255</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3298</v>
+        <v>228579</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>448355</v>
+        <v>448404</v>
       </c>
       <c r="R15" t="n">
-        <v>7037273</v>
+        <v>7037411</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2379,32 +2379,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130930230</v>
+        <v>130930219</v>
       </c>
       <c r="B16" t="n">
-        <v>78255</v>
+        <v>92530</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>228579</v>
+        <v>3298</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>448404</v>
+        <v>448355</v>
       </c>
       <c r="R16" t="n">
-        <v>7037411</v>
+        <v>7037273</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2729,32 +2729,32 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130930231</v>
+        <v>130930222</v>
       </c>
       <c r="B19" t="n">
-        <v>83223</v>
+        <v>83221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6440</v>
+        <v>6486</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skuggnål</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenotheca sphaerocephala</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2764,10 +2764,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>448412</v>
+        <v>448330</v>
       </c>
       <c r="R19" t="n">
-        <v>7037419</v>
+        <v>7037323</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130930223</v>
+        <v>130930231</v>
       </c>
       <c r="B20" t="n">
-        <v>79714</v>
+        <v>83223</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2857,21 +2857,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1797</v>
+        <v>6440</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Mjölig dropplav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cliostomum leprosum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Räsänen) Holien &amp; Tønsberg</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2881,10 +2881,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>448337</v>
+        <v>448412</v>
       </c>
       <c r="R20" t="n">
-        <v>7037328</v>
+        <v>7037419</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2963,32 +2963,32 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130930222</v>
+        <v>130930223</v>
       </c>
       <c r="B21" t="n">
-        <v>83221</v>
+        <v>79714</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6486</v>
+        <v>1797</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skuggnål</t>
+          <t>Mjölig dropplav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Chaenotheca sphaerocephala</t>
+          <t>Cliostomum leprosum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Räsänen) Holien &amp; Tønsberg</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2998,10 +2998,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>448330</v>
+        <v>448337</v>
       </c>
       <c r="R21" t="n">
-        <v>7037323</v>
+        <v>7037328</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>

--- a/artfynd/A 63441-2025 artfynd.xlsx
+++ b/artfynd/A 63441-2025 artfynd.xlsx
@@ -1448,41 +1448,48 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130930226</v>
+        <v>130930217</v>
       </c>
       <c r="B8" t="n">
-        <v>91828</v>
+        <v>79499</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>6459</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Barkkornlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>Lopadium disciforme</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Flot.) Kullh.</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Hällberget, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>448362</v>
+        <v>448392</v>
       </c>
       <c r="R8" t="n">
-        <v>7037345</v>
+        <v>7037298</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1523,27 +1530,23 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>rönn</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Sorbus aucuparia</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1561,48 +1564,41 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130930217</v>
+        <v>130930226</v>
       </c>
       <c r="B9" t="n">
-        <v>79499</v>
+        <v>91828</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6459</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Barkkornlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lopadium disciforme</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>(Flot.) Kullh.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Hällberget, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>448392</v>
+        <v>448362</v>
       </c>
       <c r="R9" t="n">
-        <v>7037298</v>
+        <v>7037345</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1643,23 +1639,27 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>rönn</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Sorbus aucuparia</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -2262,32 +2262,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130930230</v>
+        <v>130930219</v>
       </c>
       <c r="B15" t="n">
-        <v>78255</v>
+        <v>92530</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>228579</v>
+        <v>3298</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>448404</v>
+        <v>448355</v>
       </c>
       <c r="R15" t="n">
-        <v>7037411</v>
+        <v>7037273</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2379,32 +2379,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130930219</v>
+        <v>130930230</v>
       </c>
       <c r="B16" t="n">
-        <v>92530</v>
+        <v>78255</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3298</v>
+        <v>228579</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>448355</v>
+        <v>448404</v>
       </c>
       <c r="R16" t="n">
-        <v>7037273</v>
+        <v>7037411</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2729,32 +2729,32 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130930222</v>
+        <v>130930231</v>
       </c>
       <c r="B19" t="n">
-        <v>83221</v>
+        <v>83223</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6486</v>
+        <v>6440</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skuggnål</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenotheca sphaerocephala</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2764,10 +2764,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>448330</v>
+        <v>448412</v>
       </c>
       <c r="R19" t="n">
-        <v>7037323</v>
+        <v>7037419</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130930231</v>
+        <v>130930223</v>
       </c>
       <c r="B20" t="n">
-        <v>83223</v>
+        <v>79714</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2857,21 +2857,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6440</v>
+        <v>1797</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Mjölig dropplav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Cliostomum leprosum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Räsänen) Holien &amp; Tønsberg</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2881,10 +2881,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>448412</v>
+        <v>448337</v>
       </c>
       <c r="R20" t="n">
-        <v>7037419</v>
+        <v>7037328</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2963,32 +2963,32 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130930223</v>
+        <v>130930222</v>
       </c>
       <c r="B21" t="n">
-        <v>79714</v>
+        <v>83221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1797</v>
+        <v>6486</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mjölig dropplav</t>
+          <t>Skuggnål</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cliostomum leprosum</t>
+          <t>Chaenotheca sphaerocephala</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Räsänen) Holien &amp; Tønsberg</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2998,10 +2998,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>448337</v>
+        <v>448330</v>
       </c>
       <c r="R21" t="n">
-        <v>7037328</v>
+        <v>7037323</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>

--- a/artfynd/A 63441-2025 artfynd.xlsx
+++ b/artfynd/A 63441-2025 artfynd.xlsx
@@ -1451,7 +1451,7 @@
         <v>130930217</v>
       </c>
       <c r="B8" t="n">
-        <v>79499</v>
+        <v>79500</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         <v>130930226</v>
       </c>
       <c r="B9" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>130930221</v>
       </c>
       <c r="B10" t="n">
-        <v>79714</v>
+        <v>79715</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
         <v>130930232</v>
       </c>
       <c r="B11" t="n">
-        <v>83221</v>
+        <v>83222</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>130930225</v>
       </c>
       <c r="B12" t="n">
-        <v>79714</v>
+        <v>79715</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>130930227</v>
       </c>
       <c r="B13" t="n">
-        <v>83223</v>
+        <v>83224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2148,7 +2148,7 @@
         <v>130930220</v>
       </c>
       <c r="B14" t="n">
-        <v>79714</v>
+        <v>79715</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2262,32 +2262,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130930219</v>
+        <v>130930230</v>
       </c>
       <c r="B15" t="n">
-        <v>92530</v>
+        <v>78256</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3298</v>
+        <v>228579</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>448355</v>
+        <v>448404</v>
       </c>
       <c r="R15" t="n">
-        <v>7037273</v>
+        <v>7037411</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2379,32 +2379,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130930230</v>
+        <v>130930219</v>
       </c>
       <c r="B16" t="n">
-        <v>78255</v>
+        <v>92531</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>228579</v>
+        <v>3298</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>448404</v>
+        <v>448355</v>
       </c>
       <c r="R16" t="n">
-        <v>7037411</v>
+        <v>7037273</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2499,7 +2499,7 @@
         <v>130930216</v>
       </c>
       <c r="B17" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2615,7 +2615,7 @@
         <v>130930218</v>
       </c>
       <c r="B18" t="n">
-        <v>79714</v>
+        <v>79715</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2729,10 +2729,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130930231</v>
+        <v>130930223</v>
       </c>
       <c r="B19" t="n">
-        <v>83223</v>
+        <v>79715</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2740,21 +2740,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6440</v>
+        <v>1797</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Mjölig dropplav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Cliostomum leprosum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Räsänen) Holien &amp; Tønsberg</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2764,10 +2764,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>448412</v>
+        <v>448337</v>
       </c>
       <c r="R19" t="n">
-        <v>7037419</v>
+        <v>7037328</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130930223</v>
+        <v>130930231</v>
       </c>
       <c r="B20" t="n">
-        <v>79714</v>
+        <v>83224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2857,21 +2857,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1797</v>
+        <v>6440</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Mjölig dropplav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cliostomum leprosum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Räsänen) Holien &amp; Tønsberg</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2881,10 +2881,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>448337</v>
+        <v>448412</v>
       </c>
       <c r="R20" t="n">
-        <v>7037328</v>
+        <v>7037419</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2966,7 +2966,7 @@
         <v>130930222</v>
       </c>
       <c r="B21" t="n">
-        <v>83221</v>
+        <v>83222</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>130930228</v>
       </c>
       <c r="B22" t="n">
-        <v>83221</v>
+        <v>83222</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>

--- a/artfynd/A 63441-2025 artfynd.xlsx
+++ b/artfynd/A 63441-2025 artfynd.xlsx
@@ -2145,32 +2145,32 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130930220</v>
+        <v>130930219</v>
       </c>
       <c r="B14" t="n">
-        <v>79715</v>
+        <v>92531</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1797</v>
+        <v>3298</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mjölig dropplav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cliostomum leprosum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Räsänen) Holien &amp; Tønsberg</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2180,10 +2180,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>448353</v>
+        <v>448355</v>
       </c>
       <c r="R14" t="n">
-        <v>7037267</v>
+        <v>7037273</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2379,32 +2379,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130930219</v>
+        <v>130930220</v>
       </c>
       <c r="B16" t="n">
-        <v>92531</v>
+        <v>79715</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3298</v>
+        <v>1797</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Mjölig dropplav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Cliostomum leprosum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Räsänen) Holien &amp; Tønsberg</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>448355</v>
+        <v>448353</v>
       </c>
       <c r="R16" t="n">
-        <v>7037273</v>
+        <v>7037267</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2729,10 +2729,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130930223</v>
+        <v>130930231</v>
       </c>
       <c r="B19" t="n">
-        <v>79715</v>
+        <v>83224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2740,21 +2740,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1797</v>
+        <v>6440</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mjölig dropplav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Cliostomum leprosum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Räsänen) Holien &amp; Tønsberg</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2764,10 +2764,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>448337</v>
+        <v>448412</v>
       </c>
       <c r="R19" t="n">
-        <v>7037328</v>
+        <v>7037419</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2846,32 +2846,32 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130930231</v>
+        <v>130930222</v>
       </c>
       <c r="B20" t="n">
-        <v>83224</v>
+        <v>83222</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6440</v>
+        <v>6486</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Skuggnål</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenotheca sphaerocephala</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>Nádv.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2881,10 +2881,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>448412</v>
+        <v>448330</v>
       </c>
       <c r="R20" t="n">
-        <v>7037419</v>
+        <v>7037323</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2963,32 +2963,32 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130930222</v>
+        <v>130930223</v>
       </c>
       <c r="B21" t="n">
-        <v>83222</v>
+        <v>79715</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6486</v>
+        <v>1797</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Skuggnål</t>
+          <t>Mjölig dropplav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Chaenotheca sphaerocephala</t>
+          <t>Cliostomum leprosum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Nádv.</t>
+          <t>(Räsänen) Holien &amp; Tønsberg</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2998,10 +2998,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>448330</v>
+        <v>448337</v>
       </c>
       <c r="R21" t="n">
-        <v>7037323</v>
+        <v>7037328</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
